--- a/BrandyFletcher_Week2Homework .xlsx
+++ b/BrandyFletcher_Week2Homework .xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bsfle\Code\SavvyCoders\Homework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{349775A5-E2A6-4F7B-A4F6-3CAEFF8DE30E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF02A998-D794-49B1-AAF7-E2AF6445A312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="7370" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
-    <sheet name="Expenses" sheetId="1" r:id="rId2"/>
-    <sheet name="Roster" sheetId="2" r:id="rId3"/>
-    <sheet name="Credit Card Debt" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
+    <sheet name="Payments" sheetId="4" r:id="rId2"/>
+    <sheet name="Expenses" sheetId="1" r:id="rId3"/>
+    <sheet name="Roster" sheetId="2" r:id="rId4"/>
+    <sheet name="Credit Card Debt" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
-    <pivotCache cacheId="5" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="5" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1321" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1377" uniqueCount="190">
   <si>
     <t>Expenses</t>
   </si>
@@ -555,7 +556,61 @@
     <t>Sum of Tax Inclusive Amount</t>
   </si>
   <si>
-    <t>Column Labels</t>
+    <t>Semester Grades</t>
+  </si>
+  <si>
+    <t>Sum of Field1</t>
+  </si>
+  <si>
+    <t>Values</t>
+  </si>
+  <si>
+    <t>1/2/2012 Total</t>
+  </si>
+  <si>
+    <t>1/5/2012 Total</t>
+  </si>
+  <si>
+    <t>1/15/2012 Total</t>
+  </si>
+  <si>
+    <t>1/16/2012 Total</t>
+  </si>
+  <si>
+    <t>1/20/2012 Total</t>
+  </si>
+  <si>
+    <t>1/21/2012 Total</t>
+  </si>
+  <si>
+    <t>1/26/2012 Total</t>
+  </si>
+  <si>
+    <t>1/31/2012 Total</t>
+  </si>
+  <si>
+    <t>2/2/2012 Total</t>
+  </si>
+  <si>
+    <t>2/5/2012 Total</t>
+  </si>
+  <si>
+    <t>2/15/2012 Total</t>
+  </si>
+  <si>
+    <t>2/20/2012 Total</t>
+  </si>
+  <si>
+    <t>2/25/2012 Total</t>
+  </si>
+  <si>
+    <t>2/26/2012 Total</t>
+  </si>
+  <si>
+    <t>2/27/2012 Total</t>
+  </si>
+  <si>
+    <t>2/29/2012 Total</t>
   </si>
 </sst>
 </file>
@@ -634,7 +689,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -657,6 +712,175 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -664,7 +888,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -707,28 +931,52 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -736,30 +984,39 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="11">
     <dxf>
       <alignment wrapText="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <alignment wrapText="0"/>
     </dxf>
     <dxf>
-      <alignment wrapText="0"/>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <alignment wrapText="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <alignment wrapText="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <alignment wrapText="0"/>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
-      <alignment wrapText="1"/>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
-      <alignment wrapText="0"/>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -788,7 +1045,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[BrandyFletcher_Week2Homework .xlsx]Sheet1!PivotTable1</c:name>
+    <c:name>[BrandyFletcher_Week2Homework .xlsx]Payments!PivotTable1</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -998,6 +1255,796 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="12"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="13"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="14"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="15"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="16"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="17"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="18"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="19"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="20"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="21"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="22"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="23"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="24"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="25"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="26"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="27"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="28"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="29"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="30"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="31"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="32"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="33"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="34"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="35"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="36"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="37"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="38"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="39"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="40"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="41"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="42"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="43"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="44"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="45"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="46"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="47"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="48"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="49"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="50"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="51"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="52"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -1008,11 +2055,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$3:$B$4</c:f>
+              <c:f>Payments!$C$4:$C$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>B1</c:v>
+                  <c:v>Sum of Tax Inclusive Amount</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1032,6 +2079,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-EA19-4F7E-9FD4-8C8D7CDF11F2}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1047,6 +2099,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-EA19-4F7E-9FD4-8C8D7CDF11F2}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1062,6 +2119,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-EA19-4F7E-9FD4-8C8D7CDF11F2}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1077,6 +2139,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-EA19-4F7E-9FD4-8C8D7CDF11F2}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -1092,6 +2159,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-EA19-4F7E-9FD4-8C8D7CDF11F2}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -1107,6 +2179,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-EA19-4F7E-9FD4-8C8D7CDF11F2}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -1124,6 +2201,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-EA19-4F7E-9FD4-8C8D7CDF11F2}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -1141,6 +2223,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-EA19-4F7E-9FD4-8C8D7CDF11F2}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -1158,6 +2245,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-EA19-4F7E-9FD4-8C8D7CDF11F2}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
@@ -1175,6 +2267,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-EA19-4F7E-9FD4-8C8D7CDF11F2}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="10"/>
@@ -1192,6 +2289,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-EA19-4F7E-9FD4-8C8D7CDF11F2}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="11"/>
@@ -1209,6 +2311,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000017-EA19-4F7E-9FD4-8C8D7CDF11F2}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="12"/>
@@ -1227,6 +2334,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000019-EA19-4F7E-9FD4-8C8D7CDF11F2}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="13"/>
@@ -1245,6 +2357,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001B-EA19-4F7E-9FD4-8C8D7CDF11F2}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="14"/>
@@ -1263,6 +2380,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001D-EA19-4F7E-9FD4-8C8D7CDF11F2}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="15"/>
@@ -1281,69 +2403,330 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001F-EA19-4F7E-9FD4-8C8D7CDF11F2}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="16"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="17"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="18"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="19"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="20"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="21"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="22"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="23"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="24"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="25"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:dPt>
           <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$5:$A$21</c:f>
-              <c:strCache>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>1/2/2012</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1/5/2012</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1/15/2012</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1/16/2012</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1/20/2012</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1/21/2012</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1/26/2012</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1/31/2012</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2/2/2012</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2/5/2012</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2/15/2012</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2/20/2012</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2/25/2012</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2/26/2012</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2/27/2012</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2/29/2012</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:multiLvlStrRef>
+              <c:f>Payments!$A$6:$B$64</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="26"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>B1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>B1</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>B1</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>B2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>B1</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>PC</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>B1</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>B2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>PC</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>B1</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>B2</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>B1</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>PC</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>B1</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>B1</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>B1</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>B2</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>B1</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>B2</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>B1</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>PC</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>B1</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>B2</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>B1</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>B1</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>PC</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1/2/2012</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1/5/2012</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1/15/2012</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1/16/2012</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1/20/2012</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1/21/2012</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1/26/2012</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>1/31/2012</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>2/2/2012</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>2/5/2012</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>2/15/2012</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>2/20/2012</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>2/25/2012</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>2/26/2012</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>2/27/2012</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>2/29/2012</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$5:$B$21</c:f>
+              <c:f>Payments!$C$6:$C$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>1000</c:v>
                 </c:pt>
@@ -1354,40 +2737,73 @@
                   <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>1392</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>20000</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
+                  <c:v>-20000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>6720</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>738.25</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="12">
+                  <c:v>-170</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>1000</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="14">
                   <c:v>340</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="15">
                   <c:v>80</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="16">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>20000</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="18">
+                  <c:v>-20000</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>2200</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="20">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>6720</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="22">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>514</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="24">
                   <c:v>3770</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-70</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1403,11 +2819,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$3:$C$4</c:f>
+              <c:f>Payments!$D$4:$D$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>B2</c:v>
+                  <c:v>Sum of Field1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1676,307 +3092,12 @@
               <a:effectLst/>
             </c:spPr>
           </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$5:$A$21</c:f>
-              <c:strCache>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>1/2/2012</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1/5/2012</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1/15/2012</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1/16/2012</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1/20/2012</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1/21/2012</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1/26/2012</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1/31/2012</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2/2/2012</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2/5/2012</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2/15/2012</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2/20/2012</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2/25/2012</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2/26/2012</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2/27/2012</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2/29/2012</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$5:$C$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="2">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-20000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>20000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-20000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>20000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-312C-477A-A8D4-76C71D08D2B5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$D$3:$D$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>PC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="7"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="8"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="9"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="10"/>
+            <c:idx val="16"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="11"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="12"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
                   <a:lumMod val="80000"/>
                   <a:lumOff val="20000"/>
                 </a:schemeClr>
@@ -1990,11 +3111,11 @@
             </c:spPr>
           </c:dPt>
           <c:dPt>
-            <c:idx val="13"/>
+            <c:idx val="17"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2">
+                <a:schemeClr val="accent6">
                   <a:lumMod val="80000"/>
                   <a:lumOff val="20000"/>
                 </a:schemeClr>
@@ -2008,13 +3129,12 @@
             </c:spPr>
           </c:dPt>
           <c:dPt>
-            <c:idx val="14"/>
+            <c:idx val="18"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3">
+                <a:schemeClr val="accent1">
                   <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln w="19050">
@@ -2026,13 +3146,116 @@
             </c:spPr>
           </c:dPt>
           <c:dPt>
-            <c:idx val="15"/>
+            <c:idx val="19"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="20"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="21"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent4">
                   <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="22"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="23"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="24"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="25"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln w="19050">
@@ -2044,92 +3267,238 @@
             </c:spPr>
           </c:dPt>
           <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$5:$A$21</c:f>
-              <c:strCache>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>1/2/2012</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1/5/2012</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1/15/2012</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1/16/2012</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1/20/2012</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1/21/2012</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1/26/2012</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1/31/2012</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2/2/2012</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2/5/2012</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2/15/2012</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2/20/2012</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2/25/2012</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2/26/2012</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2/27/2012</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2/29/2012</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:multiLvlStrRef>
+              <c:f>Payments!$A$6:$B$64</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="26"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>B1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>B1</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>B1</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>B2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>B1</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>PC</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>B1</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>B2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>PC</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>B1</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>B2</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>B1</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>PC</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>B1</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>B1</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>B1</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>B2</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>B1</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>B2</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>B1</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>PC</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>B1</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>B2</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>B1</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>B1</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>PC</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1/2/2012</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1/5/2012</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1/15/2012</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1/16/2012</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1/20/2012</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1/21/2012</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1/26/2012</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>1/31/2012</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>2/2/2012</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>2/5/2012</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>2/15/2012</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>2/20/2012</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>2/25/2012</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>2/26/2012</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>2/27/2012</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>2/29/2012</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$5:$D$21</c:f>
+              <c:f>Payments!$D$6:$D$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="3">
-                  <c:v>105</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>61</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-170</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>75</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-70</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-312C-477A-A8D4-76C71D08D2B5}"/>
+              <c16:uniqueId val="{00000061-EA19-4F7E-9FD4-8C8D7CDF11F2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="bestFit"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -2432,7 +3801,7 @@
             <c:numRef>
               <c:f>'Credit Card Debt'!$B$10:$B$16</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>450</c:v>
@@ -2512,7 +3881,7 @@
             <c:numRef>
               <c:f>'Credit Card Debt'!$C$10:$C$16</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>187.5</c:v>
@@ -2623,7 +3992,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3864,15 +5233,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>384175</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>34925</xdr:rowOff>
+      <xdr:colOff>372382</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>39461</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>733425</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>15875</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>793750</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>117929</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3985,11 +5354,11 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Bee-Shelly" refreshedDate="45047.750171412037" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="208" xr:uid="{95C5BE8E-E9F3-4665-B939-06A95C3FE842}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Bee-Shelly" refreshedDate="45047.750171412037" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="208" xr:uid="{95C5BE8E-E9F3-4665-B939-06A95C3FE842}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A2:I210" sheet="Expenses"/>
   </cacheSource>
-  <cacheFields count="12">
+  <cacheFields count="13">
     <cacheField name="Document Date" numFmtId="14">
       <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2011-02-14T00:00:00" maxDate="2012-03-01T00:00:00"/>
     </cacheField>
@@ -4003,7 +5372,77 @@
       <sharedItems/>
     </cacheField>
     <cacheField name="Tax Inclusive Amount" numFmtId="43">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-20000" maxValue="20000"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-20000" maxValue="20000" count="69">
+        <n v="5100"/>
+        <n v="179"/>
+        <n v="478"/>
+        <n v="340"/>
+        <n v="50"/>
+        <n v="35"/>
+        <n v="1000"/>
+        <n v="90"/>
+        <n v="200"/>
+        <n v="-15000"/>
+        <n v="15000"/>
+        <n v="13000"/>
+        <n v="220"/>
+        <n v="100"/>
+        <n v="6400"/>
+        <n v="-100"/>
+        <n v="87"/>
+        <n v="80"/>
+        <n v="-20000"/>
+        <n v="20000"/>
+        <n v="1300"/>
+        <n v="3000"/>
+        <n v="41"/>
+        <n v="563"/>
+        <n v="982"/>
+        <n v="65"/>
+        <n v="110"/>
+        <n v="8700"/>
+        <n v="1782"/>
+        <n v="761"/>
+        <n v="29"/>
+        <n v="937"/>
+        <n v="2000"/>
+        <n v="-50"/>
+        <n v="78"/>
+        <n v="747"/>
+        <n v="1278"/>
+        <n v="3750"/>
+        <n v="6600"/>
+        <n v="234"/>
+        <n v="2600"/>
+        <n v="277.48"/>
+        <n v="5620"/>
+        <n v="12500"/>
+        <n v="4242"/>
+        <n v="62"/>
+        <n v="1887"/>
+        <n v="289"/>
+        <n v="3300"/>
+        <n v="218"/>
+        <n v="-200"/>
+        <n v="102"/>
+        <n v="170"/>
+        <n v="-170"/>
+        <n v="96"/>
+        <n v="120"/>
+        <n v="310"/>
+        <n v="962"/>
+        <n v="61"/>
+        <n v="8400"/>
+        <n v="105"/>
+        <n v="389.25"/>
+        <n v="514"/>
+        <n v="2200"/>
+        <n v="75"/>
+        <n v="10000"/>
+        <n v="70"/>
+        <n v="-70"/>
+        <n v="3700"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Tax Code" numFmtId="0">
       <sharedItems count="2">
@@ -4181,6 +5620,7 @@
         </groupItems>
       </fieldGroup>
     </cacheField>
+    <cacheField name="Field1" numFmtId="0" formula="'Bank Code'" databaseField="0"/>
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
@@ -4265,7 +5705,7 @@
     <s v="XY Solutions"/>
     <s v="S77782"/>
     <s v="Opening Balance"/>
-    <n v="5100"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <s v="BS-500"/>
@@ -4276,7 +5716,7 @@
     <s v="IS Communications"/>
     <s v="Invoice EXP22"/>
     <s v="Internet Service Provider"/>
-    <n v="179"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="0"/>
     <s v="IS-380"/>
@@ -4287,7 +5727,7 @@
     <s v="Newscorp"/>
     <s v="I381119"/>
     <s v="Subscriptions"/>
-    <n v="478"/>
+    <x v="2"/>
     <x v="0"/>
     <x v="0"/>
     <s v="IS-375"/>
@@ -4298,7 +5738,7 @@
     <s v="EAG Brokers"/>
     <s v="Debit Order"/>
     <s v="Insurance"/>
-    <n v="340"/>
+    <x v="3"/>
     <x v="0"/>
     <x v="0"/>
     <s v="IS-340"/>
@@ -4309,7 +5749,7 @@
     <s v="Capital Bank"/>
     <s v="Bank Statement"/>
     <s v="Service Fees"/>
-    <n v="50"/>
+    <x v="4"/>
     <x v="0"/>
     <x v="0"/>
     <s v="IS-315"/>
@@ -4320,7 +5760,7 @@
     <s v="Capital Bank"/>
     <s v="Bank Statement"/>
     <s v="Service Fees"/>
-    <n v="35"/>
+    <x v="5"/>
     <x v="0"/>
     <x v="1"/>
     <s v="IS-315"/>
@@ -4331,7 +5771,7 @@
     <s v="IAS Accountants"/>
     <s v="Invoice"/>
     <s v="Bookkeeping"/>
-    <n v="1000"/>
+    <x v="6"/>
     <x v="0"/>
     <x v="0"/>
     <s v="IS-305"/>
@@ -4342,7 +5782,7 @@
     <s v="Interflora"/>
     <s v="Cash"/>
     <s v="Flowers"/>
-    <n v="90"/>
+    <x v="7"/>
     <x v="0"/>
     <x v="2"/>
     <s v="IS-345"/>
@@ -4353,7 +5793,7 @@
     <s v="QQ International"/>
     <s v="TR6998"/>
     <s v="Parking"/>
-    <n v="200"/>
+    <x v="8"/>
     <x v="0"/>
     <x v="0"/>
     <s v="IS-390"/>
@@ -4364,7 +5804,7 @@
     <s v="Example (Pty) Ltd"/>
     <s v="Transfer"/>
     <s v="Inter Account Transfer"/>
-    <n v="-15000"/>
+    <x v="9"/>
     <x v="1"/>
     <x v="1"/>
     <s v="BS-399"/>
@@ -4375,7 +5815,7 @@
     <s v="Example (Pty) Ltd"/>
     <s v="Transfer"/>
     <s v="Inter Account Transfer"/>
-    <n v="15000"/>
+    <x v="10"/>
     <x v="1"/>
     <x v="0"/>
     <s v="BS-399"/>
@@ -4386,7 +5826,7 @@
     <s v="Example (Pty) Ltd"/>
     <s v="Payroll"/>
     <s v="Salaries"/>
-    <n v="13000"/>
+    <x v="11"/>
     <x v="1"/>
     <x v="1"/>
     <s v="IS-365"/>
@@ -4397,7 +5837,7 @@
     <s v="HP Finance"/>
     <s v="Debit Order"/>
     <s v="Capital repayment"/>
-    <n v="220"/>
+    <x v="12"/>
     <x v="1"/>
     <x v="0"/>
     <s v="BS-700"/>
@@ -4408,7 +5848,7 @@
     <s v="HP Finance"/>
     <s v="Debit Order"/>
     <s v="Interest paid"/>
-    <n v="100"/>
+    <x v="13"/>
     <x v="1"/>
     <x v="0"/>
     <s v="IS-500"/>
@@ -4419,7 +5859,7 @@
     <s v="PR Properties"/>
     <s v="Debit Order"/>
     <s v="Rent"/>
-    <n v="6400"/>
+    <x v="14"/>
     <x v="0"/>
     <x v="0"/>
     <s v="IS-350"/>
@@ -4430,7 +5870,7 @@
     <s v="Example (Pty) Ltd"/>
     <s v="Bank Statement"/>
     <s v="Petty Cash Reimbursement"/>
-    <n v="100"/>
+    <x v="13"/>
     <x v="1"/>
     <x v="0"/>
     <s v="BS-399"/>
@@ -4441,7 +5881,7 @@
     <s v="Example (Pty) Ltd"/>
     <s v="Bank Statement"/>
     <s v="Petty Cash Reimbursement"/>
-    <n v="-100"/>
+    <x v="15"/>
     <x v="1"/>
     <x v="2"/>
     <s v="BS-399"/>
@@ -4452,7 +5892,7 @@
     <s v="IS Communications"/>
     <s v="Invoice EXP23"/>
     <s v="Internet Service Provider"/>
-    <n v="179"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="0"/>
     <s v="IS-380"/>
@@ -4463,7 +5903,7 @@
     <s v="EAG Brokers"/>
     <s v="Debit Order"/>
     <s v="Insurance"/>
-    <n v="340"/>
+    <x v="3"/>
     <x v="0"/>
     <x v="0"/>
     <s v="IS-340"/>
@@ -4474,7 +5914,7 @@
     <s v="Interflora"/>
     <s v="Cash"/>
     <s v="Flowers"/>
-    <n v="87"/>
+    <x v="16"/>
     <x v="0"/>
     <x v="2"/>
     <s v="IS-345"/>
@@ -4485,7 +5925,7 @@
     <s v="Capital Bank"/>
     <s v="Bank Statement"/>
     <s v="Service Fees"/>
-    <n v="80"/>
+    <x v="17"/>
     <x v="0"/>
     <x v="0"/>
     <s v="IS-315"/>
@@ -4496,7 +5936,7 @@
     <s v="Capital Bank"/>
     <s v="Bank Statement"/>
     <s v="Service Fees"/>
-    <n v="35"/>
+    <x v="5"/>
     <x v="0"/>
     <x v="1"/>
     <s v="IS-315"/>
@@ -4507,7 +5947,7 @@
     <s v="IAS Accountants"/>
     <s v="Invoice"/>
     <s v="Bookkeeping"/>
-    <n v="1000"/>
+    <x v="6"/>
     <x v="0"/>
     <x v="0"/>
     <s v="IS-305"/>
@@ -4518,7 +5958,7 @@
     <s v="Example (Pty) Ltd"/>
     <s v="Transfer"/>
     <s v="Inter Account Transfer"/>
-    <n v="-20000"/>
+    <x v="18"/>
     <x v="1"/>
     <x v="1"/>
     <s v="BS-399"/>
@@ -4529,7 +5969,7 @@
     <s v="Example (Pty) Ltd"/>
     <s v="Transfer"/>
     <s v="Inter Account Transfer"/>
-    <n v="20000"/>
+    <x v="19"/>
     <x v="1"/>
     <x v="0"/>
     <s v="BS-399"/>
@@ -4540,7 +5980,7 @@
     <s v="Inland Revenue"/>
     <s v="Return"/>
     <s v="Sales Tax"/>
-    <n v="1300"/>
+    <x v="20"/>
     <x v="1"/>
     <x v="0"/>
     <s v="BS-600"/>
@@ -4551,7 +5991,7 @@
     <s v="Example (Pty) Ltd"/>
     <s v="Payroll"/>
     <s v="Salaries"/>
-    <n v="20000"/>
+    <x v="19"/>
     <x v="1"/>
     <x v="1"/>
     <s v="IS-365"/>
@@ -4562,7 +6002,7 @@
     <s v="Furniture City"/>
     <s v="Invoice"/>
     <s v="Furniture"/>
-    <n v="3000"/>
+    <x v="21"/>
     <x v="0"/>
     <x v="0"/>
     <s v="BS-100"/>
@@ -4573,7 +6013,7 @@
     <s v="HP Finance"/>
     <s v="Debit Order"/>
     <s v="Capital repayment"/>
-    <n v="220"/>
+    <x v="12"/>
     <x v="1"/>
     <x v="0"/>
     <s v="BS-700"/>
@@ -4584,7 +6024,7 @@
     <s v="HP Finance"/>
     <s v="Debit Order"/>
     <s v="Interest paid"/>
-    <n v="100"/>
+    <x v="13"/>
     <x v="1"/>
     <x v="0"/>
     <s v="IS-500"/>
@@ -4595,7 +6035,7 @@
     <s v="PR Properties"/>
     <s v="Debit Order"/>
     <s v="Rent"/>
-    <n v="6400"/>
+    <x v="14"/>
     <x v="0"/>
     <x v="0"/>
     <s v="IS-350"/>
@@ -4606,7 +6046,7 @@
     <s v="GF Supplies"/>
     <s v="IN1179"/>
     <s v="Consumables"/>
-    <n v="41"/>
+    <x v="22"/>
     <x v="0"/>
     <x v="2"/>
     <s v="IS-325"/>
@@ -4617,7 +6057,7 @@
     <s v="Example (Pty) Ltd"/>
     <s v="Bank Statement"/>
     <s v="Petty Cash Reimbursement"/>
-    <n v="100"/>
+    <x v="13"/>
     <x v="1"/>
     <x v="0"/>
     <s v="BS-399"/>
@@ -4628,7 +6068,7 @@
     <s v="Example (Pty) Ltd"/>
     <s v="Bank Statement"/>
     <s v="Petty Cash Reimbursement"/>
-    <n v="-100"/>
+    <x v="15"/>
     <x v="1"/>
     <x v="2"/>
     <s v="BS-399"/>
@@ -4639,7 +6079,7 @@
     <s v="IS Communications"/>
     <s v="Invoice EXP24"/>
     <s v="Internet Service Provider"/>
-    <n v="179"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="0"/>
     <s v="IS-380"/>
@@ -4650,7 +6090,7 @@
     <s v="Training Inc"/>
     <s v="Invoice"/>
     <s v="Course"/>
-    <n v="220"/>
+    <x v="12"/>
     <x v="0"/>
     <x v="0"/>
     <s v="IS-385"/>
@@ -4661,7 +6101,7 @@
     <s v="EAG Brokers"/>
     <s v="Debit Order"/>
     <s v="Insurance"/>
-    <n v="340"/>
+    <x v="3"/>
     <x v="0"/>
     <x v="0"/>
     <s v="IS-340"/>
@@ -4672,7 +6112,7 @@
     <s v="City Lodge"/>
     <s v="S50037"/>
     <s v="Accommodation"/>
-    <n v="563"/>
+    <x v="23"/>
     <x v="0"/>
     <x v="0"/>
     <s v="IS-390"/>
@@ -4683,7 +6123,7 @@
     <s v="Waltons"/>
     <s v="Invoice"/>
     <s v="Stationery"/>
-    <n v="982"/>
+    <x v="24"/>
     <x v="0"/>
     <x v="0"/>
     <s v="IS-370"/>
@@ -4694,7 +6134,7 @@
     <s v="Capital Bank"/>
     <s v="Bank Statement"/>
     <s v="Service Fees"/>
-    <n v="80"/>
+    <x v="17"/>
     <x v="0"/>
     <x v="0"/>
     <s v="IS-315"/>
@@ -4705,7 +6145,7 @@
     <s v="Capital Bank"/>
     <s v="Bank Statement"/>
     <s v="Service Fees"/>
-    <n v="35"/>
+    <x v="5"/>
     <x v="0"/>
     <x v="1"/>
     <s v="IS-315"/>
@@ -4716,7 +6156,7 @@
     <s v="IAS Accountants"/>
     <s v="Invoice"/>
     <s v="Bookkeeping"/>
-    <n v="1000"/>
+    <x v="6"/>
     <x v="0"/>
     <x v="0"/>
     <s v="IS-305"/>
@@ -4727,7 +6167,7 @@
     <s v="Example (Pty) Ltd"/>
     <s v="Transfer"/>
     <s v="Inter Account Transfer"/>
-    <n v="-20000"/>
+    <x v="18"/>
     <x v="1"/>
     <x v="1"/>
     <s v="BS-399"/>
@@ -4738,7 +6178,7 @@
     <s v="Example (Pty) Ltd"/>
     <s v="Transfer"/>
     <s v="Inter Account Transfer"/>
-    <n v="20000"/>
+    <x v="19"/>
     <x v="1"/>
     <x v="0"/>
     <s v="BS-399"/>
@@ -4749,7 +6189,7 @@
     <s v="Example (Pty) Ltd"/>
     <s v="Payroll"/>
     <s v="Salaries"/>
-    <n v="20000"/>
+    <x v="19"/>
     <x v="1"/>
     <x v="1"/>
     <s v="IS-365"/>
@@ -4760,7 +6200,7 @@
     <s v="HP Finance"/>
     <s v="Debit Order"/>
     <s v="Capital repayment"/>
-    <n v="220"/>
+    <x v="12"/>
     <x v="1"/>
     <x v="0"/>
     <s v="BS-700"/>
@@ -4771,7 +6211,7 @@
     <s v="HP Finance"/>
     <s v="Debit Order"/>
     <s v="Interest paid"/>
-    <n v="100"/>
+    <x v="13"/>
     <x v="1"/>
     <x v="0"/>
     <s v="IS-500"/>
@@ -4782,7 +6222,7 @@
     <s v="PR Properties"/>
     <s v="Debit Order"/>
     <s v="Rent"/>
-    <n v="6400"/>
+    <x v="14"/>
     <x v="0"/>
     <x v="0"/>
     <s v="IS-350"/>
@@ -4793,7 +6233,7 @@
     <s v="Interflora"/>
     <s v="Cash"/>
     <s v="Flowers"/>
-    <n v="65"/>
+    <x v="25"/>
     <x v="0"/>
     <x v="2"/>
     <s v="IS-345"/>
@@ -4804,7 +6244,7 @@
     <s v="Example (Pty) Ltd"/>
     <s v="Bank Statement"/>
     <s v="Petty Cash Reimbursement"/>
-    <n v="100"/>
+    <x v="13"/>
     <x v="1"/>
     <x v="0"/>
     <s v="BS-399"/>
@@ -4815,7 +6255,7 @@
     <s v="Example (Pty) Ltd"/>
     <s v="Bank Statement"/>
     <s v="Petty Cash Reimbursement"/>
-    <n v="-100"/>
+    <x v="15"/>
     <x v="1"/>
     <x v="2"/>
     <s v="BS-399"/>
@@ -4826,7 +6266,7 @@
     <s v="IS Communications"/>
     <s v="Invoice EXP25"/>
     <s v="Internet Service Provider"/>
-    <n v="179"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="0"/>
     <s v="IS-380"/>
@@ -4837,7 +6277,7 @@
     <s v="EAG Brokers"/>
     <s v="Debit Order"/>
     <s v="Insurance"/>
-    <n v="340"/>
+    <x v="3"/>
     <x v="0"/>
     <x v="0"/>
     <s v="IS-340"/>
@@ -4848,7 +6288,7 @@
     <s v="Capital Bank"/>
     <s v="Bank Statement"/>
     <s v="Service Fees"/>
-    <n v="80"/>
+    <x v="17"/>
     <x v="0"/>
     <x v="0"/>
     <s v="IS-315"/>
@@ -4859,7 +6299,7 @@
     <s v="Capital Bank"/>
     <s v="Bank Statement"/>
     <s v="Service Fees"/>
-    <n v="35"/>
+    <x v="5"/>
     <x v="0"/>
     <x v="1"/>
     <s v="IS-315"/>
@@ -4870,7 +6310,7 @@
     <s v="IAS Accountants"/>
     <s v="Invoice"/>
     <s v="Bookkeeping"/>
-    <n v="1000"/>
+    <x v="6"/>
     <x v="0"/>
     <x v="0"/>
     <s v="IS-305"/>
@@ -4881,7 +6321,7 @@
     <s v="Example (Pty) Ltd"/>
     <s v="Transfer"/>
     <s v="Inter Account Transfer"/>
-    <n v="-20000"/>
+    <x v="18"/>
     <x v="1"/>
     <x v="1"/>
     <s v="BS-399"/>
@@ -4892,7 +6332,7 @@
     <s v="Example (Pty) Ltd"/>
     <s v="Transfer"/>
     <s v="Inter Account Transfer"/>
-    <n v="20000"/>
+    <x v="19"/>
     <x v="1"/>
     <x v="0"/>
     <s v="BS-399"/>
@@ -4903,7 +6343,7 @@
     <s v="Interflora"/>
     <s v="Cash"/>
     <s v="Flowers"/>
-    <n v="110"/>
+    <x v="26"/>
     <x v="0"/>
     <x v="2"/>
     <s v="IS-345"/>
@@ -4914,7 +6354,7 @@
     <s v="Inland Revenue"/>
     <s v="Return"/>
     <s v="Sales Tax"/>
-    <n v="8700"/>
+    <x v="27"/>
     <x v="1"/>
     <x v="0"/>
     <s v="BS-600"/>
@@ -4925,7 +6365,7 @@
     <s v="Example (Pty) Ltd"/>
     <s v="Payroll"/>
     <s v="Salaries"/>
-    <n v="20000"/>
+    <x v="19"/>
     <x v="1"/>
     <x v="1"/>
     <s v="IS-365"/>
@@ -4936,7 +6376,7 @@
     <s v="HP Finance"/>
     <s v="Debit Order"/>
     <s v="Capital repayment"/>
-    <n v="220"/>
+    <x v="12"/>
     <x v="1"/>
     <x v="0"/>
     <s v="BS-700"/>
@@ -4947,7 +6387,7 @@
     <s v="HP Finance"/>
     <s v="Debit Order"/>
     <s v="Interest paid"/>
-    <n v="100"/>
+    <x v="13"/>
     <x v="1"/>
     <x v="0"/>
     <s v="IS-500"/>
@@ -4958,7 +6398,7 @@
     <s v="PR Properties"/>
     <s v="Debit Order"/>
     <s v="Rent"/>
-    <n v="6400"/>
+    <x v="14"/>
     <x v="0"/>
     <x v="0"/>
     <s v="IS-350"/>
@@ -4969,7 +6409,7 @@
     <s v="SA Airlines"/>
     <s v="SA11235"/>
     <s v="Travel"/>
-    <n v="1782"/>
+    <x v="28"/>
     <x v="0"/>
     <x v="0"/>
     <s v="IS-390"/>
@@ -4980,7 +6420,7 @@
     <s v="Example (Pty) Ltd"/>
     <s v="Bank Statement"/>
     <s v="Petty Cash Reimbursement"/>
-    <n v="100"/>
+    <x v="13"/>
     <x v="1"/>
     <x v="0"/>
     <s v="BS-399"/>
@@ -4991,7 +6431,7 @@
     <s v="Example (Pty) Ltd"/>
     <s v="Bank Statement"/>
     <s v="Petty Cash Reimbursement"/>
-    <n v="-100"/>
+    <x v="15"/>
     <x v="1"/>
     <x v="2"/>
     <s v="BS-399"/>
@@ -5002,7 +6442,7 @@
     <s v="IS Communications"/>
     <s v="Invoice EXP26"/>
     <s v="Internet Service Provider"/>
-    <n v="179"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="0"/>
     <s v="IS-380"/>
@@ -5013,7 +6453,7 @@
     <s v="Waltons"/>
     <s v="Invoice"/>
     <s v="Stationery"/>
-    <n v="761"/>
+    <x v="29"/>
     <x v="0"/>
     <x v="0"/>
     <s v="IS-370"/>
@@ -5024,7 +6464,7 @@
     <s v="EAG Brokers"/>
     <s v="Debit Order"/>
     <s v="Insurance"/>
-    <n v="340"/>
+    <x v="3"/>
     <x v="0"/>
     <x v="0"/>
     <s v="IS-340"/>
@@ -5035,7 +6475,7 @@
     <s v="Capital Bank"/>
     <s v="Bank Statement"/>
     <s v="Service Fees"/>
-    <n v="80"/>
+    <x v="17"/>
     <x v="0"/>
     <x v="0"/>
     <s v="IS-315"/>
@@ -5046,7 +6486,7 @@
     <s v="Capital Bank"/>
     <s v="Bank Statement"/>
     <s v="Service Fees"/>
-    <n v="35"/>
+    <x v="5"/>
     <x v="0"/>
     <x v="1"/>
     <s v="IS-315"/>
@@ -5057,7 +6497,7 @@
     <s v="IAS Accountants"/>
     <s v="Invoice"/>
     <s v="Bookkeeping"/>
-    <n v="1000"/>
+    <x v="6"/>
     <x v="0"/>
     <x v="0"/>
     <s v="IS-305"/>
@@ -5068,7 +6508,7 @@
     <s v="Interflora"/>
     <s v="Cash"/>
     <s v="Flowers"/>
-    <n v="29"/>
+    <x v="30"/>
     <x v="0"/>
     <x v="2"/>
     <s v="IS-345"/>
@@ -5079,7 +6519,7 @@
     <s v="GF Supplies"/>
     <s v="IN1181"/>
     <s v="Consumables"/>
-    <n v="937"/>
+    <x v="31"/>
     <x v="0"/>
     <x v="0"/>
     <s v="IS-325"/>
@@ -5090,7 +6530,7 @@
     <s v="Example (Pty) Ltd"/>
     <s v="Transfer"/>
     <s v="Inter Account Transfer"/>
-    <n v="-20000"/>
+    <x v="18"/>
     <x v="1"/>
     <x v="1"/>
     <s v="BS-399"/>
@@ -5101,7 +6541,7 @@
     <s v="Example (Pty) Ltd"/>
     <s v="Transfer"/>
     <s v="Inter Account Transfer"/>
-    <n v="20000"/>
+    <x v="19"/>
     <x v="1"/>
     <x v="0"/>
     <s v="BS-399"/>
@@ -5112,7 +6552,7 @@
     <s v="ACC Institute"/>
     <s v="M00321037"/>
     <s v="Annual Membership"/>
-    <n v="2000"/>
+    <x v="32"/>
     <x v="0"/>
     <x v="0"/>
     <s v="IS-375"/>
@@ -5123,7 +6563,7 @@
     <s v="Example (Pty) Ltd"/>
     <s v="Payroll"/>
     <s v="Salaries"/>
-    <n v="20000"/>
+    <x v="19"/>
     <x v="1"/>
     <x v="1"/>
     <s v="IS-365"/>
@@ -5134,7 +6574,7 @@
     <s v="HP Finance"/>
     <s v="Debit Order"/>
     <s v="Capital repayment"/>
-    <n v="220"/>
+    <x v="12"/>
     <x v="1"/>
     <x v="0"/>
     <s v="BS-700"/>
@@ -5145,7 +6585,7 @@
     <s v="HP Finance"/>
     <s v="Debit Order"/>
     <s v="Interest paid"/>
-    <n v="100"/>
+    <x v="13"/>
     <x v="1"/>
     <x v="0"/>
     <s v="IS-500"/>
@@ -5156,7 +6596,7 @@
     <s v="PR Properties"/>
     <s v="Debit Order"/>
     <s v="Rent"/>
-    <n v="6400"/>
+    <x v="14"/>
     <x v="0"/>
     <x v="0"/>
     <s v="IS-350"/>
@@ -5167,7 +6607,7 @@
     <s v="Example (Pty) Ltd"/>
     <s v="Bank Statement"/>
     <s v="Petty Cash Reimbursement"/>
-    <n v="50"/>
+    <x v="4"/>
     <x v="1"/>
     <x v="0"/>
     <s v="BS-399"/>
@@ -5178,7 +6618,7 @@
     <s v="Example (Pty) Ltd"/>
     <s v="Bank Statement"/>
     <s v="Petty Cash Reimbursement"/>
-    <n v="-50"/>
+    <x v="33"/>
     <x v="1"/>
     <x v="2"/>
     <s v="BS-399"/>
@@ -5189,7 +6629,7 @@
     <s v="IS Communications"/>
     <s v="Invoice EXP27"/>
     <s v="Internet Service Provider"/>
-    <n v="179"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="0"/>
     <s v="IS-380"/>
@@ -5200,7 +6640,7 @@
     <s v="EAG Brokers"/>
     <s v="Debit Order"/>
     <s v="Insurance"/>
-    <n v="340"/>
+    <x v="3"/>
     <x v="0"/>
     <x v="0"/>
     <s v="IS-340"/>
@@ -5211,7 +6651,7 @@
     <s v="Interflora"/>
     <s v="Cash"/>
     <s v="Flowers"/>
-    <n v="78"/>
+    <x v="34"/>
     <x v="0"/>
     <x v="2"/>
     <s v="IS-345"/>
@@ -5222,7 +6662,7 @@
     <s v="XY Traders"/>
     <s v="Invoice 9987"/>
     <s v="Commission"/>
-    <n v="747"/>
+    <x v="35"/>
     <x v="0"/>
     <x v="0"/>
     <s v="IS-320"/>
@@ -5233,7 +6673,7 @@
     <s v="Capital Bank"/>
     <s v="Bank Statement"/>
     <s v="Service Fees"/>
-    <n v="80"/>
+    <x v="17"/>
     <x v="0"/>
     <x v="0"/>
     <s v="IS-315"/>
@@ -5244,7 +6684,7 @@
     <s v="Capital Bank"/>
     <s v="Bank Statement"/>
     <s v="Service Fees"/>
-    <n v="35"/>
+    <x v="5"/>
     <x v="0"/>
     <x v="1"/>
     <s v="IS-315"/>
@@ -5255,7 +6695,7 @@
     <s v="IAS Accountants"/>
     <s v="Invoice"/>
     <s v="Bookkeeping"/>
-    <n v="1000"/>
+    <x v="6"/>
     <x v="0"/>
     <x v="0"/>
     <s v="IS-305"/>
@@ -5266,7 +6706,7 @@
     <s v="SA Airlines"/>
     <s v="SA11988"/>
     <s v="Travel"/>
-    <n v="1278"/>
+    <x v="36"/>
     <x v="0"/>
     <x v="0"/>
     <s v="IS-390"/>
@@ -5277,7 +6717,7 @@
     <s v="Example (Pty) Ltd"/>
     <s v="Transfer"/>
     <s v="Inter Account Transfer"/>
-    <n v="-20000"/>
+    <x v="18"/>
     <x v="1"/>
     <x v="1"/>
     <s v="BS-399"/>
@@ -5288,7 +6728,7 @@
     <s v="Example (Pty) Ltd"/>
     <s v="Transfer"/>
     <s v="Inter Account Transfer"/>
-    <n v="20000"/>
+    <x v="19"/>
     <x v="1"/>
     <x v="0"/>
     <s v="BS-399"/>
@@ -5299,7 +6739,7 @@
     <s v="JSE Brokers"/>
     <s v="Remittance"/>
     <s v="Share investment"/>
-    <n v="3750"/>
+    <x v="37"/>
     <x v="1"/>
     <x v="0"/>
     <s v="BS-200"/>
@@ -5310,7 +6750,7 @@
     <s v="Inland Revenue"/>
     <s v="Return"/>
     <s v="Sales Tax"/>
-    <n v="6600"/>
+    <x v="38"/>
     <x v="1"/>
     <x v="0"/>
     <s v="BS-600"/>
@@ -5321,7 +6761,7 @@
     <s v="Example (Pty) Ltd"/>
     <s v="Payroll"/>
     <s v="Salaries"/>
-    <n v="20000"/>
+    <x v="19"/>
     <x v="1"/>
     <x v="1"/>
     <s v="IS-365"/>
@@ -5332,7 +6772,7 @@
     <s v="HP Finance"/>
     <s v="Debit Order"/>
     <s v="Capital repayment"/>
-    <n v="220"/>
+    <x v="12"/>
     <x v="1"/>
     <x v="0"/>
     <s v="BS-700"/>
@@ -5343,7 +6783,7 @@
     <s v="HP Finance"/>
     <s v="Debit Order"/>
     <s v="Interest paid"/>
-    <n v="100"/>
+    <x v="13"/>
     <x v="1"/>
     <x v="0"/>
     <s v="IS-500"/>
@@ -5354,7 +6794,7 @@
     <s v="PR Properties"/>
     <s v="Debit Order"/>
     <s v="Rent"/>
-    <n v="6400"/>
+    <x v="14"/>
     <x v="0"/>
     <x v="0"/>
     <s v="IS-350"/>
@@ -5365,7 +6805,7 @@
     <s v="Waltons"/>
     <s v="Invoice"/>
     <s v="Stationery"/>
-    <n v="234"/>
+    <x v="39"/>
     <x v="0"/>
     <x v="0"/>
     <s v="IS-370"/>
@@ -5376,7 +6816,7 @@
     <s v="Example (Pty) Ltd"/>
     <s v="Bank Statement"/>
     <s v="Petty Cash Reimbursement"/>
-    <n v="50"/>
+    <x v="4"/>
     <x v="1"/>
     <x v="0"/>
     <s v="BS-399"/>
@@ -5387,7 +6827,7 @@
     <s v="Example (Pty) Ltd"/>
     <s v="Bank Statement"/>
     <s v="Petty Cash Reimbursement"/>
-    <n v="-50"/>
+    <x v="33"/>
     <x v="1"/>
     <x v="2"/>
     <s v="BS-399"/>
@@ -5398,7 +6838,7 @@
     <s v="Inland Revenue"/>
     <s v="Return"/>
     <s v="Provisional Tax"/>
-    <n v="2600"/>
+    <x v="40"/>
     <x v="1"/>
     <x v="0"/>
     <s v="IS-600"/>
@@ -5409,7 +6849,7 @@
     <s v="IS Communications"/>
     <s v="Invoice EXP28"/>
     <s v="Internet Service Provider"/>
-    <n v="179"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="0"/>
     <s v="IS-380"/>
@@ -5420,7 +6860,7 @@
     <s v="EAG Brokers"/>
     <s v="Debit Order"/>
     <s v="Insurance"/>
-    <n v="340"/>
+    <x v="3"/>
     <x v="0"/>
     <x v="0"/>
     <s v="IS-340"/>
@@ -5431,7 +6871,7 @@
     <s v="Training Inc"/>
     <s v="Invoice"/>
     <s v="Course"/>
-    <n v="277.48"/>
+    <x v="41"/>
     <x v="0"/>
     <x v="0"/>
     <s v="IS-385"/>
@@ -5442,7 +6882,7 @@
     <s v="Capital Bank"/>
     <s v="Bank Statement"/>
     <s v="Service Fees"/>
-    <n v="80"/>
+    <x v="17"/>
     <x v="0"/>
     <x v="0"/>
     <s v="IS-315"/>
@@ -5453,7 +6893,7 @@
     <s v="Capital Bank"/>
     <s v="Bank Statement"/>
     <s v="Service Fees"/>
-    <n v="35"/>
+    <x v="5"/>
     <x v="0"/>
     <x v="1"/>
     <s v="IS-315"/>
@@ -5464,7 +6904,7 @@
     <s v="IAS Accountants"/>
     <s v="Invoice"/>
     <s v="Bookkeeping"/>
-    <n v="1000"/>
+    <x v="6"/>
     <x v="0"/>
     <x v="0"/>
     <s v="IS-305"/>
@@ -5475,7 +6915,7 @@
     <s v="Municipality"/>
     <s v="Statement"/>
     <s v="Rates"/>
-    <n v="5620"/>
+    <x v="42"/>
     <x v="0"/>
     <x v="0"/>
     <s v="IS-395"/>
@@ -5486,7 +6926,7 @@
     <s v="QA Attorneys"/>
     <s v="Invoice"/>
     <s v="Legal advice"/>
-    <n v="12500"/>
+    <x v="43"/>
     <x v="0"/>
     <x v="0"/>
     <s v="IS-360"/>
@@ -5497,7 +6937,7 @@
     <s v="Example (Pty) Ltd"/>
     <s v="Transfer"/>
     <s v="Inter Account Transfer"/>
-    <n v="-20000"/>
+    <x v="18"/>
     <x v="1"/>
     <x v="1"/>
     <s v="BS-399"/>
@@ -5508,7 +6948,7 @@
     <s v="Example (Pty) Ltd"/>
     <s v="Transfer"/>
     <s v="Inter Account Transfer"/>
-    <n v="20000"/>
+    <x v="19"/>
     <x v="1"/>
     <x v="0"/>
     <s v="BS-399"/>
@@ -5519,7 +6959,7 @@
     <s v="Interflora"/>
     <s v="Cash"/>
     <s v="Flowers"/>
-    <n v="90"/>
+    <x v="7"/>
     <x v="0"/>
     <x v="2"/>
     <s v="IS-345"/>
@@ -5530,7 +6970,7 @@
     <s v="XY Traders"/>
     <s v="Invoice11203"/>
     <s v="Commission"/>
-    <n v="4242"/>
+    <x v="44"/>
     <x v="0"/>
     <x v="0"/>
     <s v="IS-320"/>
@@ -5541,7 +6981,7 @@
     <s v="Example (Pty) Ltd"/>
     <s v="Payroll"/>
     <s v="Salaries"/>
-    <n v="20000"/>
+    <x v="19"/>
     <x v="1"/>
     <x v="1"/>
     <s v="IS-365"/>
@@ -5552,7 +6992,7 @@
     <s v="HP Finance"/>
     <s v="Debit Order"/>
     <s v="Capital repayment"/>
-    <n v="220"/>
+    <x v="12"/>
     <x v="1"/>
     <x v="0"/>
     <s v="BS-700"/>
@@ -5563,7 +7003,7 @@
     <s v="HP Finance"/>
     <s v="Debit Order"/>
     <s v="Interest paid"/>
-    <n v="100"/>
+    <x v="13"/>
     <x v="1"/>
     <x v="0"/>
     <s v="IS-500"/>
@@ -5574,7 +7014,7 @@
     <s v="PR Properties"/>
     <s v="Debit Order"/>
     <s v="Rent"/>
-    <n v="6400"/>
+    <x v="14"/>
     <x v="0"/>
     <x v="0"/>
     <s v="IS-350"/>
@@ -5585,7 +7025,7 @@
     <s v="Example (Pty) Ltd"/>
     <s v="Bank Statement"/>
     <s v="Petty Cash Reimbursement"/>
-    <n v="100"/>
+    <x v="13"/>
     <x v="1"/>
     <x v="0"/>
     <s v="BS-399"/>
@@ -5596,7 +7036,7 @@
     <s v="Example (Pty) Ltd"/>
     <s v="Bank Statement"/>
     <s v="Petty Cash Reimbursement"/>
-    <n v="-100"/>
+    <x v="15"/>
     <x v="1"/>
     <x v="2"/>
     <s v="BS-399"/>
@@ -5607,7 +7047,7 @@
     <s v="IS Communications"/>
     <s v="Invoice EXP29"/>
     <s v="Internet Service Provider"/>
-    <n v="179"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="0"/>
     <s v="IS-380"/>
@@ -5618,7 +7058,7 @@
     <s v="GF Supplies"/>
     <s v="IN1185"/>
     <s v="Consumables"/>
-    <n v="62"/>
+    <x v="45"/>
     <x v="0"/>
     <x v="2"/>
     <s v="IS-325"/>
@@ -5629,7 +7069,7 @@
     <s v="SA Airlines"/>
     <s v="SA12741"/>
     <s v="Travel"/>
-    <n v="1887"/>
+    <x v="46"/>
     <x v="0"/>
     <x v="0"/>
     <s v="IS-390"/>
@@ -5640,7 +7080,7 @@
     <s v="EAG Brokers"/>
     <s v="Debit Order"/>
     <s v="Insurance"/>
-    <n v="340"/>
+    <x v="3"/>
     <x v="0"/>
     <x v="0"/>
     <s v="IS-340"/>
@@ -5651,7 +7091,7 @@
     <s v="Capital Bank"/>
     <s v="Bank Statement"/>
     <s v="Service Fees"/>
-    <n v="80"/>
+    <x v="17"/>
     <x v="0"/>
     <x v="0"/>
     <s v="IS-315"/>
@@ -5662,7 +7102,7 @@
     <s v="Capital Bank"/>
     <s v="Bank Statement"/>
     <s v="Service Fees"/>
-    <n v="35"/>
+    <x v="5"/>
     <x v="0"/>
     <x v="1"/>
     <s v="IS-315"/>
@@ -5673,7 +7113,7 @@
     <s v="IAS Accountants"/>
     <s v="Invoice"/>
     <s v="Bookkeeping"/>
-    <n v="1000"/>
+    <x v="6"/>
     <x v="0"/>
     <x v="0"/>
     <s v="IS-305"/>
@@ -5684,7 +7124,7 @@
     <s v="Example (Pty) Ltd"/>
     <s v="Transfer"/>
     <s v="Inter Account Transfer"/>
-    <n v="-20000"/>
+    <x v="18"/>
     <x v="1"/>
     <x v="1"/>
     <s v="BS-399"/>
@@ -5695,7 +7135,7 @@
     <s v="Example (Pty) Ltd"/>
     <s v="Transfer"/>
     <s v="Inter Account Transfer"/>
-    <n v="20000"/>
+    <x v="19"/>
     <x v="1"/>
     <x v="0"/>
     <s v="BS-399"/>
@@ -5706,7 +7146,7 @@
     <s v="Waltons"/>
     <s v="Invoice"/>
     <s v="Stationery"/>
-    <n v="289"/>
+    <x v="47"/>
     <x v="0"/>
     <x v="0"/>
     <s v="IS-370"/>
@@ -5717,7 +7157,7 @@
     <s v="Inland Revenue"/>
     <s v="Return"/>
     <s v="Sales Tax"/>
-    <n v="3300"/>
+    <x v="48"/>
     <x v="1"/>
     <x v="0"/>
     <s v="BS-600"/>
@@ -5728,7 +7168,7 @@
     <s v="Example (Pty) Ltd"/>
     <s v="Payroll"/>
     <s v="Salaries"/>
-    <n v="20000"/>
+    <x v="19"/>
     <x v="1"/>
     <x v="1"/>
     <s v="IS-365"/>
@@ -5739,7 +7179,7 @@
     <s v="HP Finance"/>
     <s v="Debit Order"/>
     <s v="Capital repayment"/>
-    <n v="220"/>
+    <x v="12"/>
     <x v="1"/>
     <x v="0"/>
     <s v="BS-700"/>
@@ -5750,7 +7190,7 @@
     <s v="HP Finance"/>
     <s v="Debit Order"/>
     <s v="Interest paid"/>
-    <n v="100"/>
+    <x v="13"/>
     <x v="1"/>
     <x v="0"/>
     <s v="IS-500"/>
@@ -5761,7 +7201,7 @@
     <s v="PR Properties"/>
     <s v="Debit Order"/>
     <s v="Rent"/>
-    <n v="6400"/>
+    <x v="14"/>
     <x v="0"/>
     <x v="0"/>
     <s v="IS-350"/>
@@ -5772,7 +7212,7 @@
     <s v="Interflora"/>
     <s v="Cash"/>
     <s v="Flowers"/>
-    <n v="218"/>
+    <x v="49"/>
     <x v="0"/>
     <x v="2"/>
     <s v="IS-345"/>
@@ -5783,7 +7223,7 @@
     <s v="Example (Pty) Ltd"/>
     <s v="Bank Statement"/>
     <s v="Petty Cash Reimbursement"/>
-    <n v="200"/>
+    <x v="8"/>
     <x v="1"/>
     <x v="0"/>
     <s v="BS-399"/>
@@ -5794,7 +7234,7 @@
     <s v="Example (Pty) Ltd"/>
     <s v="Bank Statement"/>
     <s v="Petty Cash Reimbursement"/>
-    <n v="-200"/>
+    <x v="50"/>
     <x v="1"/>
     <x v="2"/>
     <s v="BS-399"/>
@@ -5805,7 +7245,7 @@
     <s v="IS Communications"/>
     <s v="Invoice EXP30"/>
     <s v="Internet Service Provider"/>
-    <n v="179"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="0"/>
     <s v="IS-380"/>
@@ -5816,7 +7256,7 @@
     <s v="EAG Brokers"/>
     <s v="Debit Order"/>
     <s v="Insurance"/>
-    <n v="340"/>
+    <x v="3"/>
     <x v="0"/>
     <x v="0"/>
     <s v="IS-340"/>
@@ -5827,7 +7267,7 @@
     <s v="XY Traders"/>
     <s v="Invoice 12987"/>
     <s v="Commission"/>
-    <n v="982"/>
+    <x v="24"/>
     <x v="0"/>
     <x v="0"/>
     <s v="IS-320"/>
@@ -5838,7 +7278,7 @@
     <s v="Capital Bank"/>
     <s v="Bank Statement"/>
     <s v="Service Fees"/>
-    <n v="80"/>
+    <x v="17"/>
     <x v="0"/>
     <x v="0"/>
     <s v="IS-315"/>
@@ -5849,7 +7289,7 @@
     <s v="Capital Bank"/>
     <s v="Bank Statement"/>
     <s v="Service Fees"/>
-    <n v="35"/>
+    <x v="5"/>
     <x v="0"/>
     <x v="1"/>
     <s v="IS-315"/>
@@ -5860,7 +7300,7 @@
     <s v="IAS Accountants"/>
     <s v="Invoice"/>
     <s v="Bookkeeping"/>
-    <n v="1000"/>
+    <x v="6"/>
     <x v="0"/>
     <x v="0"/>
     <s v="IS-305"/>
@@ -5871,7 +7311,7 @@
     <s v="Interflora"/>
     <s v="Cash"/>
     <s v="Flowers"/>
-    <n v="102"/>
+    <x v="51"/>
     <x v="0"/>
     <x v="2"/>
     <s v="IS-345"/>
@@ -5882,7 +7322,7 @@
     <s v="Example (Pty) Ltd"/>
     <s v="Transfer"/>
     <s v="Inter Account Transfer"/>
-    <n v="-20000"/>
+    <x v="18"/>
     <x v="1"/>
     <x v="1"/>
     <s v="BS-399"/>
@@ -5893,7 +7333,7 @@
     <s v="Example (Pty) Ltd"/>
     <s v="Transfer"/>
     <s v="Inter Account Transfer"/>
-    <n v="20000"/>
+    <x v="19"/>
     <x v="1"/>
     <x v="0"/>
     <s v="BS-399"/>
@@ -5904,7 +7344,7 @@
     <s v="Example (Pty) Ltd"/>
     <s v="Payroll"/>
     <s v="Salaries"/>
-    <n v="20000"/>
+    <x v="19"/>
     <x v="1"/>
     <x v="1"/>
     <s v="IS-365"/>
@@ -5915,7 +7355,7 @@
     <s v="HP Finance"/>
     <s v="Debit Order"/>
     <s v="Capital repayment"/>
-    <n v="220"/>
+    <x v="12"/>
     <x v="1"/>
     <x v="0"/>
     <s v="BS-700"/>
@@ -5926,7 +7366,7 @@
     <s v="HP Finance"/>
     <s v="Debit Order"/>
     <s v="Interest paid"/>
-    <n v="100"/>
+    <x v="13"/>
     <x v="1"/>
     <x v="0"/>
     <s v="IS-500"/>
@@ -5937,7 +7377,7 @@
     <s v="PR Properties"/>
     <s v="Debit Order"/>
     <s v="Rent"/>
-    <n v="6400"/>
+    <x v="14"/>
     <x v="0"/>
     <x v="0"/>
     <s v="IS-350"/>
@@ -5948,7 +7388,7 @@
     <s v="Example (Pty) Ltd"/>
     <s v="Bank Statement"/>
     <s v="Petty Cash Reimbursement"/>
-    <n v="170"/>
+    <x v="52"/>
     <x v="1"/>
     <x v="0"/>
     <s v="BS-399"/>
@@ -5959,7 +7399,7 @@
     <s v="Example (Pty) Ltd"/>
     <s v="Bank Statement"/>
     <s v="Petty Cash Reimbursement"/>
-    <n v="-170"/>
+    <x v="53"/>
     <x v="1"/>
     <x v="2"/>
     <s v="BS-399"/>
@@ -5970,7 +7410,7 @@
     <s v="IS Communications"/>
     <s v="Invoice EXP31"/>
     <s v="Internet Service Provider"/>
-    <n v="179"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="0"/>
     <s v="IS-380"/>
@@ -5981,7 +7421,7 @@
     <s v="EAG Brokers"/>
     <s v="Debit Order"/>
     <s v="Insurance"/>
-    <n v="340"/>
+    <x v="3"/>
     <x v="0"/>
     <x v="0"/>
     <s v="IS-340"/>
@@ -5992,7 +7432,7 @@
     <s v="Interflora"/>
     <s v="Cash"/>
     <s v="Flowers"/>
-    <n v="96"/>
+    <x v="54"/>
     <x v="0"/>
     <x v="2"/>
     <s v="IS-345"/>
@@ -6003,7 +7443,7 @@
     <s v="Capital Bank"/>
     <s v="Bank Statement"/>
     <s v="Service Fees"/>
-    <n v="80"/>
+    <x v="17"/>
     <x v="0"/>
     <x v="0"/>
     <s v="IS-315"/>
@@ -6014,7 +7454,7 @@
     <s v="Capital Bank"/>
     <s v="Bank Statement"/>
     <s v="Service Fees"/>
-    <n v="35"/>
+    <x v="5"/>
     <x v="0"/>
     <x v="1"/>
     <s v="IS-315"/>
@@ -6025,7 +7465,7 @@
     <s v="IAS Accountants"/>
     <s v="Invoice"/>
     <s v="Bookkeeping"/>
-    <n v="1000"/>
+    <x v="6"/>
     <x v="0"/>
     <x v="0"/>
     <s v="IS-305"/>
@@ -6036,7 +7476,7 @@
     <s v="Newscorp"/>
     <s v="M00353051"/>
     <s v="Subscriptions"/>
-    <n v="120"/>
+    <x v="55"/>
     <x v="0"/>
     <x v="0"/>
     <s v="IS-375"/>
@@ -6047,7 +7487,7 @@
     <s v="Waltons"/>
     <s v="Invoice"/>
     <s v="Stationery"/>
-    <n v="310"/>
+    <x v="56"/>
     <x v="0"/>
     <x v="0"/>
     <s v="IS-370"/>
@@ -6058,7 +7498,7 @@
     <s v="XY Traders"/>
     <s v="Invoice 13432"/>
     <s v="Commission"/>
-    <n v="962"/>
+    <x v="57"/>
     <x v="0"/>
     <x v="0"/>
     <s v="IS-320"/>
@@ -6069,7 +7509,7 @@
     <s v="Example (Pty) Ltd"/>
     <s v="Transfer"/>
     <s v="Inter Account Transfer"/>
-    <n v="-20000"/>
+    <x v="18"/>
     <x v="1"/>
     <x v="1"/>
     <s v="BS-399"/>
@@ -6080,7 +7520,7 @@
     <s v="Example (Pty) Ltd"/>
     <s v="Transfer"/>
     <s v="Inter Account Transfer"/>
-    <n v="20000"/>
+    <x v="19"/>
     <x v="1"/>
     <x v="0"/>
     <s v="BS-399"/>
@@ -6091,7 +7531,7 @@
     <s v="GF Supplies"/>
     <s v="IN1192"/>
     <s v="Consumables"/>
-    <n v="61"/>
+    <x v="58"/>
     <x v="0"/>
     <x v="2"/>
     <s v="IS-325"/>
@@ -6102,7 +7542,7 @@
     <s v="Inland Revenue"/>
     <s v="Return"/>
     <s v="Sales Tax"/>
-    <n v="8400"/>
+    <x v="59"/>
     <x v="1"/>
     <x v="0"/>
     <s v="BS-600"/>
@@ -6113,7 +7553,7 @@
     <s v="Example (Pty) Ltd"/>
     <s v="Payroll"/>
     <s v="Salaries"/>
-    <n v="20000"/>
+    <x v="19"/>
     <x v="1"/>
     <x v="1"/>
     <s v="IS-365"/>
@@ -6124,7 +7564,7 @@
     <s v="HP Finance"/>
     <s v="Debit Order"/>
     <s v="Capital repayment"/>
-    <n v="220"/>
+    <x v="12"/>
     <x v="1"/>
     <x v="0"/>
     <s v="BS-700"/>
@@ -6135,7 +7575,7 @@
     <s v="HP Finance"/>
     <s v="Debit Order"/>
     <s v="Interest paid"/>
-    <n v="100"/>
+    <x v="13"/>
     <x v="1"/>
     <x v="0"/>
     <s v="IS-500"/>
@@ -6146,7 +7586,7 @@
     <s v="PR Properties"/>
     <s v="Debit Order"/>
     <s v="Rent"/>
-    <n v="6400"/>
+    <x v="14"/>
     <x v="0"/>
     <x v="0"/>
     <s v="IS-350"/>
@@ -6157,7 +7597,7 @@
     <s v="Example (Pty) Ltd"/>
     <s v="Bank Statement"/>
     <s v="Petty Cash Reimbursement"/>
-    <n v="100"/>
+    <x v="13"/>
     <x v="1"/>
     <x v="0"/>
     <s v="BS-399"/>
@@ -6168,7 +7608,7 @@
     <s v="Example (Pty) Ltd"/>
     <s v="Bank Statement"/>
     <s v="Petty Cash Reimbursement"/>
-    <n v="-100"/>
+    <x v="15"/>
     <x v="1"/>
     <x v="2"/>
     <s v="BS-399"/>
@@ -6179,7 +7619,7 @@
     <s v="IS Communications"/>
     <s v="Invoice EXP32"/>
     <s v="Internet Service Provider"/>
-    <n v="179"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="0"/>
     <s v="IS-380"/>
@@ -6190,7 +7630,7 @@
     <s v="EAG Brokers"/>
     <s v="Debit Order"/>
     <s v="Insurance"/>
-    <n v="340"/>
+    <x v="3"/>
     <x v="0"/>
     <x v="0"/>
     <s v="IS-340"/>
@@ -6201,7 +7641,7 @@
     <s v="Capital Bank"/>
     <s v="Bank Statement"/>
     <s v="Service Fees"/>
-    <n v="80"/>
+    <x v="17"/>
     <x v="0"/>
     <x v="0"/>
     <s v="IS-315"/>
@@ -6212,7 +7652,7 @@
     <s v="Capital Bank"/>
     <s v="Bank Statement"/>
     <s v="Service Fees"/>
-    <n v="35"/>
+    <x v="5"/>
     <x v="0"/>
     <x v="1"/>
     <s v="IS-315"/>
@@ -6223,7 +7663,7 @@
     <s v="IAS Accountants"/>
     <s v="Invoice"/>
     <s v="Bookkeeping"/>
-    <n v="1000"/>
+    <x v="6"/>
     <x v="0"/>
     <x v="0"/>
     <s v="IS-305"/>
@@ -6234,7 +7674,7 @@
     <s v="Interflora"/>
     <s v="Cash"/>
     <s v="Flowers"/>
-    <n v="105"/>
+    <x v="60"/>
     <x v="0"/>
     <x v="2"/>
     <s v="IS-345"/>
@@ -6245,7 +7685,7 @@
     <s v="Example (Pty) Ltd"/>
     <s v="Transfer"/>
     <s v="Inter Account Transfer"/>
-    <n v="-20000"/>
+    <x v="18"/>
     <x v="1"/>
     <x v="1"/>
     <s v="BS-399"/>
@@ -6256,7 +7696,7 @@
     <s v="Example (Pty) Ltd"/>
     <s v="Transfer"/>
     <s v="Inter Account Transfer"/>
-    <n v="20000"/>
+    <x v="19"/>
     <x v="1"/>
     <x v="0"/>
     <s v="BS-399"/>
@@ -6267,7 +7707,7 @@
     <s v="Example (Pty) Ltd"/>
     <s v="Payroll"/>
     <s v="Salaries"/>
-    <n v="20000"/>
+    <x v="19"/>
     <x v="1"/>
     <x v="1"/>
     <s v="IS-365"/>
@@ -6278,7 +7718,7 @@
     <s v="HP Finance"/>
     <s v="Debit Order"/>
     <s v="Capital repayment"/>
-    <n v="220"/>
+    <x v="12"/>
     <x v="1"/>
     <x v="0"/>
     <s v="BS-700"/>
@@ -6289,7 +7729,7 @@
     <s v="HP Finance"/>
     <s v="Debit Order"/>
     <s v="Interest paid"/>
-    <n v="100"/>
+    <x v="13"/>
     <x v="1"/>
     <x v="0"/>
     <s v="IS-500"/>
@@ -6300,7 +7740,7 @@
     <s v="PR Properties"/>
     <s v="Debit Order"/>
     <s v="Rent"/>
-    <n v="6400"/>
+    <x v="14"/>
     <x v="0"/>
     <x v="0"/>
     <s v="IS-350"/>
@@ -6311,7 +7751,7 @@
     <s v="Training Inc"/>
     <s v="Invoice"/>
     <s v="Training"/>
-    <n v="389.25"/>
+    <x v="61"/>
     <x v="0"/>
     <x v="0"/>
     <s v="IS-385"/>
@@ -6322,7 +7762,7 @@
     <s v="XY Traders"/>
     <s v="Invoice 14278"/>
     <s v="Commission"/>
-    <n v="514"/>
+    <x v="62"/>
     <x v="0"/>
     <x v="0"/>
     <s v="IS-320"/>
@@ -6333,7 +7773,7 @@
     <s v="Example (Pty) Ltd"/>
     <s v="Bank Statement"/>
     <s v="Petty Cash Reimbursement"/>
-    <n v="170"/>
+    <x v="52"/>
     <x v="1"/>
     <x v="0"/>
     <s v="BS-399"/>
@@ -6344,7 +7784,7 @@
     <s v="Example (Pty) Ltd"/>
     <s v="Bank Statement"/>
     <s v="Petty Cash Reimbursement"/>
-    <n v="-170"/>
+    <x v="53"/>
     <x v="1"/>
     <x v="2"/>
     <s v="BS-399"/>
@@ -6355,7 +7795,7 @@
     <s v="IS Communications"/>
     <s v="Invoice EXP33"/>
     <s v="Internet Service Provider"/>
-    <n v="179"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="0"/>
     <s v="IS-380"/>
@@ -6366,7 +7806,7 @@
     <s v="EAG Brokers"/>
     <s v="Debit Order"/>
     <s v="Insurance"/>
-    <n v="340"/>
+    <x v="3"/>
     <x v="0"/>
     <x v="0"/>
     <s v="IS-340"/>
@@ -6377,7 +7817,7 @@
     <s v="Waltons"/>
     <s v="Invoice"/>
     <s v="Stationery"/>
-    <n v="289"/>
+    <x v="47"/>
     <x v="0"/>
     <x v="0"/>
     <s v="IS-370"/>
@@ -6388,7 +7828,7 @@
     <s v="Capital Bank"/>
     <s v="Bank Statement"/>
     <s v="Service Fees"/>
-    <n v="80"/>
+    <x v="17"/>
     <x v="0"/>
     <x v="0"/>
     <s v="IS-315"/>
@@ -6399,7 +7839,7 @@
     <s v="Capital Bank"/>
     <s v="Bank Statement"/>
     <s v="Service Fees"/>
-    <n v="35"/>
+    <x v="5"/>
     <x v="0"/>
     <x v="1"/>
     <s v="IS-315"/>
@@ -6410,7 +7850,7 @@
     <s v="IAS Accountants"/>
     <s v="Invoice"/>
     <s v="Bookkeeping"/>
-    <n v="1000"/>
+    <x v="6"/>
     <x v="0"/>
     <x v="0"/>
     <s v="IS-305"/>
@@ -6421,7 +7861,7 @@
     <s v="Example (Pty) Ltd"/>
     <s v="Transfer"/>
     <s v="Inter Account Transfer"/>
-    <n v="-20000"/>
+    <x v="18"/>
     <x v="1"/>
     <x v="1"/>
     <s v="BS-399"/>
@@ -6432,7 +7872,7 @@
     <s v="Example (Pty) Ltd"/>
     <s v="Transfer"/>
     <s v="Inter Account Transfer"/>
-    <n v="20000"/>
+    <x v="19"/>
     <x v="1"/>
     <x v="0"/>
     <s v="BS-399"/>
@@ -6443,7 +7883,7 @@
     <s v="Inland Revenue"/>
     <s v="Return"/>
     <s v="Sales Tax"/>
-    <n v="2200"/>
+    <x v="63"/>
     <x v="1"/>
     <x v="0"/>
     <s v="BS-600"/>
@@ -6454,7 +7894,7 @@
     <s v="Interflora"/>
     <s v="Cash"/>
     <s v="Flowers"/>
-    <n v="75"/>
+    <x v="64"/>
     <x v="0"/>
     <x v="2"/>
     <s v="IS-345"/>
@@ -6465,7 +7905,7 @@
     <s v="DF Equipment"/>
     <s v="Invoice"/>
     <s v="Office equipment"/>
-    <n v="10000"/>
+    <x v="65"/>
     <x v="0"/>
     <x v="0"/>
     <s v="BS-100"/>
@@ -6476,7 +7916,7 @@
     <s v="Example (Pty) Ltd"/>
     <s v="Payroll"/>
     <s v="Salaries"/>
-    <n v="20000"/>
+    <x v="19"/>
     <x v="1"/>
     <x v="1"/>
     <s v="IS-365"/>
@@ -6487,7 +7927,7 @@
     <s v="HP Finance"/>
     <s v="Debit Order"/>
     <s v="Capital repayment"/>
-    <n v="220"/>
+    <x v="12"/>
     <x v="1"/>
     <x v="0"/>
     <s v="BS-700"/>
@@ -6498,7 +7938,7 @@
     <s v="HP Finance"/>
     <s v="Debit Order"/>
     <s v="Interest paid"/>
-    <n v="100"/>
+    <x v="13"/>
     <x v="1"/>
     <x v="0"/>
     <s v="IS-500"/>
@@ -6509,7 +7949,7 @@
     <s v="PR Properties"/>
     <s v="Debit Order"/>
     <s v="Rent"/>
-    <n v="6400"/>
+    <x v="14"/>
     <x v="0"/>
     <x v="0"/>
     <s v="IS-350"/>
@@ -6520,7 +7960,7 @@
     <s v="Example (Pty) Ltd"/>
     <s v="Bank Statement"/>
     <s v="Petty Cash Reimbursement"/>
-    <n v="70"/>
+    <x v="66"/>
     <x v="1"/>
     <x v="0"/>
     <s v="BS-399"/>
@@ -6531,7 +7971,7 @@
     <s v="Example (Pty) Ltd"/>
     <s v="Bank Statement"/>
     <s v="Petty Cash Reimbursement"/>
-    <n v="-70"/>
+    <x v="67"/>
     <x v="1"/>
     <x v="2"/>
     <s v="BS-399"/>
@@ -6542,7 +7982,7 @@
     <s v="Inland Revenue"/>
     <s v="Return"/>
     <s v="Provisional Tax"/>
-    <n v="3700"/>
+    <x v="68"/>
     <x v="1"/>
     <x v="0"/>
     <s v="IS-600"/>
@@ -6552,22 +7992,95 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D2B50B6D-F95D-4B13-9C86-DA9F0F58A4E0}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A3:E21" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="12">
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" numFmtId="43" showAll="0"/>
-    <pivotField showAll="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D2B50B6D-F95D-4B13-9C86-DA9F0F58A4E0}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" pageOverThenDown="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A4:D64" firstHeaderRow="1" firstDataRow="2" firstDataCol="2"/>
+  <pivotFields count="13">
+    <pivotField compact="0" numFmtId="14" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" numFmtId="43" outline="0" showAll="0">
+      <items count="70">
+        <item x="18"/>
+        <item x="9"/>
+        <item x="50"/>
+        <item x="53"/>
+        <item x="15"/>
+        <item x="67"/>
+        <item x="33"/>
+        <item x="30"/>
+        <item x="5"/>
+        <item x="22"/>
+        <item x="4"/>
+        <item x="58"/>
+        <item x="45"/>
+        <item x="25"/>
+        <item x="66"/>
+        <item x="64"/>
+        <item x="34"/>
+        <item x="17"/>
+        <item x="16"/>
+        <item x="7"/>
+        <item x="54"/>
+        <item x="13"/>
+        <item x="51"/>
+        <item x="60"/>
+        <item x="26"/>
+        <item x="55"/>
+        <item x="52"/>
+        <item x="1"/>
+        <item x="8"/>
+        <item x="49"/>
+        <item x="12"/>
+        <item x="39"/>
+        <item x="41"/>
+        <item x="47"/>
+        <item x="56"/>
+        <item x="3"/>
+        <item x="61"/>
+        <item x="2"/>
+        <item x="62"/>
+        <item x="23"/>
+        <item x="35"/>
+        <item x="29"/>
+        <item x="31"/>
+        <item x="57"/>
+        <item x="24"/>
+        <item x="6"/>
+        <item x="36"/>
+        <item x="20"/>
+        <item x="28"/>
+        <item x="46"/>
+        <item x="32"/>
+        <item x="63"/>
+        <item x="40"/>
+        <item x="21"/>
+        <item x="48"/>
+        <item x="68"/>
+        <item x="37"/>
+        <item x="44"/>
+        <item x="0"/>
+        <item x="42"/>
+        <item x="14"/>
+        <item x="38"/>
+        <item x="59"/>
+        <item x="27"/>
+        <item x="65"/>
+        <item x="43"/>
+        <item x="11"/>
+        <item x="10"/>
+        <item x="19"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0">
       <items count="3">
         <item x="0"/>
         <item x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisCol" showAll="0">
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
       <items count="4">
         <item x="0"/>
         <item x="1"/>
@@ -6575,8 +8088,8 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField axis="axisRow" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" insertBlankRow="1">
       <items count="111">
         <item h="1" x="0"/>
         <item h="1" x="3"/>
@@ -6691,7 +8204,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0">
+    <pivotField compact="0" outline="0" showAll="0">
       <items count="15">
         <item sd="0" x="0"/>
         <item sd="0" x="1"/>
@@ -6710,7 +8223,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0">
+    <pivotField compact="0" outline="0" showAll="0">
       <items count="7">
         <item sd="0" x="0"/>
         <item sd="0" x="1"/>
@@ -6721,7 +8234,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0">
+    <pivotField compact="0" outline="0" showAll="0">
       <items count="5">
         <item sd="0" x="0"/>
         <item sd="0" x="1"/>
@@ -6730,57 +8243,201 @@
         <item t="default"/>
       </items>
     </pivotField>
+    <pivotField dataField="1" compact="0" outline="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
-  <rowFields count="1">
+  <rowFields count="2">
     <field x="8"/>
+    <field x="6"/>
   </rowFields>
-  <rowItems count="17">
+  <rowItems count="59">
     <i>
+      <x v="93"/>
+      <x/>
+    </i>
+    <i t="default">
+      <x v="93"/>
+    </i>
+    <i t="blank">
       <x v="93"/>
     </i>
     <i>
       <x v="94"/>
+      <x/>
+    </i>
+    <i t="default">
+      <x v="94"/>
+    </i>
+    <i t="blank">
+      <x v="94"/>
     </i>
     <i>
+      <x v="95"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i t="default">
+      <x v="95"/>
+    </i>
+    <i t="blank">
       <x v="95"/>
     </i>
     <i>
       <x v="96"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i t="default">
+      <x v="96"/>
+    </i>
+    <i t="blank">
+      <x v="96"/>
     </i>
     <i>
+      <x v="97"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i t="default">
+      <x v="97"/>
+    </i>
+    <i t="blank">
       <x v="97"/>
     </i>
     <i>
       <x v="98"/>
+      <x v="2"/>
+    </i>
+    <i t="default">
+      <x v="98"/>
+    </i>
+    <i t="blank">
+      <x v="98"/>
     </i>
     <i>
+      <x v="99"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i t="default">
+      <x v="99"/>
+    </i>
+    <i t="blank">
       <x v="99"/>
     </i>
     <i>
       <x v="100"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i t="default">
+      <x v="100"/>
+    </i>
+    <i t="blank">
+      <x v="100"/>
     </i>
     <i>
+      <x v="101"/>
+      <x/>
+    </i>
+    <i t="default">
+      <x v="101"/>
+    </i>
+    <i t="blank">
       <x v="101"/>
     </i>
     <i>
       <x v="102"/>
+      <x/>
+    </i>
+    <i t="default">
+      <x v="102"/>
+    </i>
+    <i t="blank">
+      <x v="102"/>
     </i>
     <i>
+      <x v="103"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i t="default">
+      <x v="103"/>
+    </i>
+    <i t="blank">
       <x v="103"/>
     </i>
     <i>
       <x v="104"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i t="default">
+      <x v="104"/>
+    </i>
+    <i t="blank">
+      <x v="104"/>
     </i>
     <i>
+      <x v="105"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i t="default">
+      <x v="105"/>
+    </i>
+    <i t="blank">
       <x v="105"/>
     </i>
     <i>
       <x v="106"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i t="default">
+      <x v="106"/>
+    </i>
+    <i t="blank">
+      <x v="106"/>
     </i>
     <i>
       <x v="107"/>
+      <x/>
+    </i>
+    <i t="default">
+      <x v="107"/>
+    </i>
+    <i t="blank">
+      <x v="107"/>
     </i>
     <i>
+      <x v="108"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i t="default">
+      <x v="108"/>
+    </i>
+    <i t="blank">
       <x v="108"/>
     </i>
     <i t="grand">
@@ -6788,31 +8445,39 @@
     </i>
   </rowItems>
   <colFields count="1">
-    <field x="6"/>
+    <field x="-2"/>
   </colFields>
-  <colItems count="4">
+  <colItems count="2">
     <i>
       <x/>
     </i>
-    <i>
+    <i i="1">
       <x v="1"/>
     </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
   </colItems>
-  <dataFields count="1">
+  <dataFields count="2">
     <dataField name="Sum of Tax Inclusive Amount" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Field1" fld="12" baseField="0" baseItem="0"/>
   </dataFields>
-  <formats count="1">
-    <format dxfId="7">
+  <formats count="4">
+    <format dxfId="4">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
+    <format dxfId="5">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="8" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="6">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="7">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
   </formats>
-  <chartFormats count="3">
+  <chartFormats count="53">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
@@ -6845,6 +8510,744 @@
           </reference>
           <reference field="6" count="1" selected="0">
             <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="93"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="94"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="95"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="96"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="97"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="98"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="99"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="100"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="101"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="102"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="103"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="104"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="105"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="16">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="106"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="17">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="107"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="18">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="108"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="19">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="93"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="94"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="95"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="96"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="97"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="98"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="99"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="100"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="101"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="28">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="102"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="29">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="103"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="30">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="104"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="31">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="105"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="32">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="106"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="33">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="107"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="34">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="108"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="35">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="93"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="36">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="94"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="37">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="95"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="38">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="96"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="39">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="97"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="40">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="98"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="41">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="99"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="42">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="100"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="43">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="101"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="44">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="102"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="45">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="103"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="46">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="104"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="47">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="105"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="48">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="106"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="49">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="107"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="50">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="108"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="51" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="52" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
           </reference>
         </references>
       </pivotArea>
@@ -6925,6 +9328,11 @@
     <dataField name="Sum of Balance" fld="1" baseField="0" baseItem="0"/>
     <dataField name="Sum of Monthly Payment" fld="6" baseField="0" baseItem="0"/>
   </dataFields>
+  <formats count="1">
+    <format dxfId="10">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
   <chartFormats count="2">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
@@ -6955,6 +9363,24 @@
     </ext>
   </extLst>
 </pivotTableDefinition>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B5272377-5092-4C96-BB75-3625D1A5DA52}" name="Table1" displayName="Table1" ref="A1:I2" totalsRowShown="0">
+  <autoFilter ref="A1:I2" xr:uid="{B5272377-5092-4C96-BB75-3625D1A5DA52}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{BF76AD0C-256B-4279-B714-48DE392173B8}" name="Document Date" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{496606A7-9FB5-46DF-BD6D-0FAAED965F1D}" name="Supplier"/>
+    <tableColumn id="3" xr3:uid="{4EC645DE-067D-46A7-859C-B0051F282C33}" name="Reference"/>
+    <tableColumn id="4" xr3:uid="{2FB14CAB-6B97-459F-9B6D-97CC5145805A}" name="Description"/>
+    <tableColumn id="5" xr3:uid="{BB56041D-3E8C-444C-8A60-D5B5690927B1}" name="Tax Inclusive Amount" dataCellStyle="Currency"/>
+    <tableColumn id="6" xr3:uid="{55D196E7-0BF5-4BD0-BC7F-FFD34EAD5A53}" name="Tax Code"/>
+    <tableColumn id="7" xr3:uid="{CDB37A54-2C5F-4CF3-814F-523F729AEA12}" name="Bank Code"/>
+    <tableColumn id="8" xr3:uid="{E8873210-1E04-49B8-A630-909CC5408B76}" name="Account Code"/>
+    <tableColumn id="9" xr3:uid="{E92227BC-16D0-46D4-BE12-9854B37C6E05}" name="Payment Date" dataDxfId="8"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7253,20 +9679,107 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08DCF538-BCE7-4798-95A0-11BAC1432FB4}">
-  <dimension ref="A3:JM21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C3CBE8C-8076-470E-A0C7-D41B05C3B512}">
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.453125" customWidth="1"/>
+    <col min="2" max="2" width="13.6328125" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="16.08984375" customWidth="1"/>
+    <col min="5" max="5" width="22" style="24" customWidth="1"/>
+    <col min="6" max="6" width="10.453125" customWidth="1"/>
+    <col min="7" max="7" width="11.7265625" customWidth="1"/>
+    <col min="8" max="8" width="14.36328125" customWidth="1"/>
+    <col min="9" max="9" width="14.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="49">
+        <v>40923</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="24">
+        <v>80</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="49">
+        <v>40923</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08DCF538-BCE7-4798-95A0-11BAC1432FB4}">
+  <dimension ref="A1:JM64"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="35.81640625" customWidth="1"/>
+    <col min="2" max="2" width="12.54296875" style="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.08984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.26953125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.36328125" customWidth="1"/>
     <col min="8" max="8" width="3" bestFit="1" customWidth="1"/>
@@ -7537,43 +10050,35 @@
     <col min="273" max="273" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:273" x14ac:dyDescent="0.35">
+      <c r="B1"/>
+    </row>
+    <row r="2" spans="1:273" x14ac:dyDescent="0.35">
+      <c r="B2"/>
+    </row>
     <row r="3" spans="1:273" x14ac:dyDescent="0.35">
-      <c r="A3" s="26" t="s">
+      <c r="B3"/>
+    </row>
+    <row r="4" spans="1:273" x14ac:dyDescent="0.35">
+      <c r="B4"/>
+      <c r="C4" s="22" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:273" s="24" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
         <v>170</v>
       </c>
-      <c r="B3" s="26" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="4" spans="1:273" x14ac:dyDescent="0.35">
-      <c r="A4" s="31" t="s">
-        <v>166</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="5" spans="1:273" s="30" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="29">
-        <v>40910</v>
-      </c>
-      <c r="B5" s="28">
-        <v>1000</v>
-      </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28">
-        <v>1000</v>
-      </c>
+      <c r="D5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E5"/>
       <c r="F5"/>
       <c r="G5"/>
       <c r="H5"/>
@@ -7844,249 +10349,636 @@
       <c r="JM5"/>
     </row>
     <row r="6" spans="1:273" x14ac:dyDescent="0.35">
-      <c r="A6" s="29">
+      <c r="A6" s="49">
+        <v>40910</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="26">
+        <v>1000</v>
+      </c>
+      <c r="D6" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:273" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B7"/>
+      <c r="C7" s="26">
+        <v>1000</v>
+      </c>
+      <c r="D7" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:273" x14ac:dyDescent="0.35">
+      <c r="B8"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+    </row>
+    <row r="9" spans="1:273" x14ac:dyDescent="0.35">
+      <c r="A9" s="49">
         <v>40913</v>
       </c>
-      <c r="B6" s="28">
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="26">
         <v>340</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28">
+      <c r="D9" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:273" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>175</v>
+      </c>
+      <c r="B10"/>
+      <c r="C10" s="26">
         <v>340</v>
       </c>
-    </row>
-    <row r="7" spans="1:273" x14ac:dyDescent="0.35">
-      <c r="A7" s="29">
+      <c r="D10" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:273" x14ac:dyDescent="0.35">
+      <c r="B11"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+    </row>
+    <row r="12" spans="1:273" x14ac:dyDescent="0.35">
+      <c r="A12" s="49">
         <v>40923</v>
       </c>
-      <c r="B7" s="28">
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="26">
         <v>80</v>
       </c>
-      <c r="C7" s="28">
+      <c r="D12" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:273" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="26">
         <v>35</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28">
+      <c r="D13" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:273" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>176</v>
+      </c>
+      <c r="B14"/>
+      <c r="C14" s="26">
         <v>115</v>
       </c>
-    </row>
-    <row r="8" spans="1:273" x14ac:dyDescent="0.35">
-      <c r="A8" s="29">
+      <c r="D14" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:273" x14ac:dyDescent="0.35">
+      <c r="B15"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+    </row>
+    <row r="16" spans="1:273" x14ac:dyDescent="0.35">
+      <c r="A16" s="49">
         <v>40924</v>
       </c>
-      <c r="B8" s="28">
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="26">
         <v>1392</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28">
+      <c r="D16" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="26">
         <v>105</v>
       </c>
-      <c r="E8" s="28">
+      <c r="D17" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>177</v>
+      </c>
+      <c r="B18"/>
+      <c r="C18" s="26">
         <v>1497</v>
       </c>
-    </row>
-    <row r="9" spans="1:273" x14ac:dyDescent="0.35">
-      <c r="A9" s="29">
+      <c r="D18" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B19"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="49">
         <v>40928</v>
       </c>
-      <c r="B9" s="28">
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="26">
         <v>20000</v>
       </c>
-      <c r="C9" s="28">
+      <c r="D20" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="26">
         <v>-20000</v>
       </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28">
+      <c r="D21" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:273" x14ac:dyDescent="0.35">
-      <c r="A10" s="29">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>178</v>
+      </c>
+      <c r="B22"/>
+      <c r="C22" s="26">
+        <v>0</v>
+      </c>
+      <c r="D22" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B23"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="49">
         <v>40929</v>
       </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28">
+      <c r="B24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="26">
         <v>61</v>
       </c>
-      <c r="E10" s="28">
+      <c r="D24" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>179</v>
+      </c>
+      <c r="B25"/>
+      <c r="C25" s="26">
         <v>61</v>
       </c>
-    </row>
-    <row r="11" spans="1:273" x14ac:dyDescent="0.35">
-      <c r="A11" s="29">
+      <c r="D25" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="49">
         <v>40934</v>
       </c>
-      <c r="B11" s="28">
+      <c r="B27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="26">
         <v>6720</v>
       </c>
-      <c r="C11" s="28">
+      <c r="D27" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="26">
         <v>20000</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28">
+      <c r="D28" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>180</v>
+      </c>
+      <c r="B29"/>
+      <c r="C29" s="26">
         <v>26720</v>
       </c>
-    </row>
-    <row r="12" spans="1:273" x14ac:dyDescent="0.35">
-      <c r="A12" s="29">
+      <c r="D29" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B30"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="49">
         <v>40939</v>
       </c>
-      <c r="B12" s="28">
+      <c r="B31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="26">
         <v>738.25</v>
       </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28">
+      <c r="D31" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="26">
         <v>-170</v>
       </c>
-      <c r="E12" s="28">
+      <c r="D32" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>181</v>
+      </c>
+      <c r="B33"/>
+      <c r="C33" s="26">
         <v>568.25</v>
       </c>
-    </row>
-    <row r="13" spans="1:273" x14ac:dyDescent="0.35">
-      <c r="A13" s="29">
+      <c r="D33" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B34"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="49">
         <v>40941</v>
       </c>
-      <c r="B13" s="28">
+      <c r="B35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="26">
         <v>1000</v>
       </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28">
+      <c r="D35" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>182</v>
+      </c>
+      <c r="B36"/>
+      <c r="C36" s="26">
         <v>1000</v>
       </c>
-    </row>
-    <row r="14" spans="1:273" x14ac:dyDescent="0.35">
-      <c r="A14" s="29">
+      <c r="D36" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B37"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="49">
         <v>40944</v>
       </c>
-      <c r="B14" s="28">
+      <c r="B38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="26">
         <v>340</v>
       </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28">
+      <c r="D38" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>183</v>
+      </c>
+      <c r="B39"/>
+      <c r="C39" s="26">
         <v>340</v>
       </c>
-    </row>
-    <row r="15" spans="1:273" x14ac:dyDescent="0.35">
-      <c r="A15" s="29">
+      <c r="D39" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B40"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" s="49">
         <v>40954</v>
       </c>
-      <c r="B15" s="28">
+      <c r="B41" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" s="26">
         <v>80</v>
       </c>
-      <c r="C15" s="28">
+      <c r="D41" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B42" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42" s="26">
         <v>35</v>
       </c>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28">
+      <c r="D42" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>184</v>
+      </c>
+      <c r="B43"/>
+      <c r="C43" s="26">
         <v>115</v>
       </c>
-    </row>
-    <row r="16" spans="1:273" x14ac:dyDescent="0.35">
-      <c r="A16" s="29">
+      <c r="D43" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B44"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" s="49">
         <v>40959</v>
       </c>
-      <c r="B16" s="28">
+      <c r="B45" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" s="26">
         <v>20000</v>
       </c>
-      <c r="C16" s="28">
+      <c r="D45" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B46" t="s">
+        <v>31</v>
+      </c>
+      <c r="C46" s="26">
         <v>-20000</v>
       </c>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28">
+      <c r="D46" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="29">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>185</v>
+      </c>
+      <c r="B47"/>
+      <c r="C47" s="26">
+        <v>0</v>
+      </c>
+      <c r="D47" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B48"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="26"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" s="49">
         <v>40964</v>
       </c>
-      <c r="B17" s="28">
+      <c r="B49" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" s="26">
         <v>2200</v>
       </c>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28">
+      <c r="D49" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B50" t="s">
+        <v>39</v>
+      </c>
+      <c r="C50" s="26">
         <v>75</v>
       </c>
-      <c r="E17" s="28">
+      <c r="D50" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>186</v>
+      </c>
+      <c r="B51"/>
+      <c r="C51" s="26">
         <v>2275</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="29">
+      <c r="D51" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B52"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="26"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" s="49">
         <v>40965</v>
       </c>
-      <c r="B18" s="28">
+      <c r="B53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53" s="26">
         <v>6720</v>
       </c>
-      <c r="C18" s="28">
+      <c r="D53" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B54" t="s">
+        <v>31</v>
+      </c>
+      <c r="C54" s="26">
         <v>20000</v>
       </c>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28">
+      <c r="D54" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>187</v>
+      </c>
+      <c r="B55"/>
+      <c r="C55" s="26">
         <v>26720</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="29">
+      <c r="D55" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B56"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="26"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" s="49">
         <v>40966</v>
       </c>
-      <c r="B19" s="28">
+      <c r="B57" t="s">
+        <v>13</v>
+      </c>
+      <c r="C57" s="26">
         <v>514</v>
       </c>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28">
+      <c r="D57" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>188</v>
+      </c>
+      <c r="B58"/>
+      <c r="C58" s="26">
         <v>514</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="29">
+      <c r="D58" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B59"/>
+      <c r="C59" s="26"/>
+      <c r="D59" s="26"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60" s="49">
         <v>40968</v>
       </c>
-      <c r="B20" s="28">
+      <c r="B60" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60" s="26">
         <v>3770</v>
       </c>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28">
+      <c r="D60" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B61" t="s">
+        <v>39</v>
+      </c>
+      <c r="C61" s="26">
         <v>-70</v>
       </c>
-      <c r="E20" s="28">
+      <c r="D61" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>189</v>
+      </c>
+      <c r="B62"/>
+      <c r="C62" s="26">
         <v>3700</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="27" t="s">
+      <c r="D62" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B63"/>
+      <c r="C63" s="26"/>
+      <c r="D63" s="26"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
         <v>168</v>
       </c>
-      <c r="B21" s="28">
-        <v>64894.25</v>
-      </c>
-      <c r="C21" s="28">
-        <v>70</v>
-      </c>
-      <c r="D21" s="28">
-        <v>1</v>
-      </c>
-      <c r="E21" s="28">
+      <c r="B64"/>
+      <c r="C64" s="26">
         <v>64965.25</v>
+      </c>
+      <c r="D64" s="26">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I210"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection sqref="A1:XFD210"/>
+      <selection activeCell="I2" sqref="A2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -14168,12 +17060,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF08EA71-E399-479A-91E7-D1C4571EE7B6}">
-  <dimension ref="A3:F20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:B15"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14182,229 +17074,256 @@
     <col min="5" max="5" width="12.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B3" s="23" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B3" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="20" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B4" s="24" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B4" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4" s="20">
         <v>12</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="20">
         <v>85</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="20" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B5" s="23" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B5" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="20">
         <v>11</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="20">
         <v>72</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="20" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B6" s="23" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B6" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="20">
         <v>13</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="20">
         <v>60</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="20" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B7" s="23" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B7" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="20">
         <v>12</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="20">
         <v>95</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="20" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B8" s="23" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B8" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="20">
         <v>14</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="20">
         <v>88</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="20" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B9" s="23" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B9" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="20">
         <v>12</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="20">
         <v>99</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="20" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B10" s="23" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B10" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C10" s="20">
         <v>11</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="20">
         <v>75</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="20" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B11" s="23" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B11" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="20">
         <v>13</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D11" s="20">
         <v>100</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="20" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B12" s="23" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B12" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="20">
         <v>13</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D12" s="20">
         <v>75</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="E12" s="20" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B13" s="23" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B13" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="C13" s="23">
+      <c r="C13" s="20">
         <v>15</v>
       </c>
-      <c r="D13" s="23">
+      <c r="D13" s="20">
         <v>85</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="E13" s="20" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B14" s="23" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B14" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="C14" s="23">
+      <c r="C14" s="20">
         <v>11</v>
       </c>
-      <c r="D14" s="23">
+      <c r="D14" s="20">
         <v>85</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="20" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="20" t="s">
+    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B16" s="51" t="s">
+        <v>142</v>
+      </c>
+      <c r="C16" s="54">
+        <f>MIN(C4,C4:C14)</f>
+        <v>11</v>
+      </c>
+      <c r="D16" s="19">
+        <f>MIN(D4,D4:D14)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B17" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="C17" s="54">
+        <f>MAX(C4,C4:C14)</f>
+        <v>15</v>
+      </c>
+      <c r="D17" s="19">
+        <f>MAX(D4,D4:D14)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B18" s="52" t="s">
+        <v>144</v>
+      </c>
+      <c r="C18" s="54">
+        <f>AVERAGE(C4,C4:C14)</f>
+        <v>12.416666666666666</v>
+      </c>
+      <c r="D18" s="19">
+        <f>AVERAGE(D4,D4:D14)</f>
+        <v>83.666666666666671</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B19" s="52" t="s">
+        <v>145</v>
+      </c>
+      <c r="C19" s="55">
+        <f>MODE(C4,C4:C14)</f>
+        <v>12</v>
+      </c>
+      <c r="D19" s="19">
+        <f>MODE(D4,D4:D14)</f>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="53" t="s">
+        <v>146</v>
+      </c>
+      <c r="C20" s="54">
+        <f>MEDIAN(C4,C4:C14)</f>
+        <v>12</v>
+      </c>
+      <c r="D20" s="19">
+        <f>MEDIAN(D4,D4:D14)</f>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="B15" s="22">
+      <c r="B21" s="50">
         <f>COUNT(B4:B14,C4:C14)</f>
         <v>11</v>
-      </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="E16" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="F16" s="21">
-        <f>MIN(C4:C14,D4:D14)</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E17" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="F17" s="21">
-        <f>MAX(C4:C14,D4:D14)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E18" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="F18" s="21">
-        <f>AVERAGE(C4:C14,D4:D14)</f>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E19" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="F19" s="22">
-        <f>MODE(C4:C14,D4:D14)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E20" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="F20" s="21">
-        <f>MEDIAN(C4:C14,D4:D14)</f>
-        <v>37.5</v>
       </c>
     </row>
   </sheetData>
@@ -14416,12 +17335,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BDDB2DF-BF1C-4216-A0ED-8C9113011039}">
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14432,168 +17351,169 @@
     <col min="4" max="4" width="7.36328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.08984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="18" t="s">
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="29" t="s">
         <v>162</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="29" t="s">
         <v>163</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="29" t="s">
         <v>164</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="29" t="s">
         <v>154</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="30" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="32">
         <v>2000</v>
       </c>
-      <c r="C3" s="25">
+      <c r="C3" s="33">
         <v>0.21</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="34">
         <v>3</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="35">
         <f>SUM(B3*C3)</f>
         <v>420</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="35">
         <f>SUM(B3+E3)</f>
         <v>2420</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="36">
         <f>SUM(F3/D3)</f>
         <v>806.66666666666663</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="38">
         <v>450</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="39">
         <v>0.25</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="40">
         <v>3</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="41">
         <f t="shared" ref="E4:E7" si="0">SUM(B4*C4)</f>
         <v>112.5</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="41">
         <f t="shared" ref="F4:F7" si="1">SUM(B4+E4)</f>
         <v>562.5</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="42">
         <f t="shared" ref="G4:G7" si="2">SUM(F4/D4)</f>
         <v>187.5</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" s="37" t="s">
         <v>159</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="38">
         <v>975</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="39">
         <v>0.27</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="40">
         <v>3</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="41">
         <f t="shared" si="0"/>
         <v>263.25</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="41">
         <f t="shared" si="1"/>
         <v>1238.25</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="42">
         <f t="shared" si="2"/>
         <v>412.75</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" s="37" t="s">
         <v>160</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="38">
         <v>1500</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="39">
         <v>0.15</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="40">
         <v>3</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="41">
         <f t="shared" si="0"/>
         <v>225</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="41">
         <f t="shared" si="1"/>
         <v>1725</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="42">
         <f t="shared" si="2"/>
         <v>575</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="43" t="s">
         <v>161</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="44">
         <v>780</v>
       </c>
-      <c r="C7" s="25">
+      <c r="C7" s="45">
         <v>0.25</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="46">
         <v>3</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="47">
         <f t="shared" si="0"/>
         <v>195</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="47">
         <f t="shared" si="1"/>
         <v>975</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="48">
         <f t="shared" si="2"/>
         <v>325</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="22" t="s">
         <v>166</v>
       </c>
       <c r="B9" t="s">
@@ -14604,73 +17524,75 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="25">
         <v>450</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="25">
         <v>187.5</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="25">
         <v>1500</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="25">
         <v>575</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="25">
         <v>975</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="25">
         <v>412.75</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="25">
         <v>2000</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="25">
         <v>806.66666666666663</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="25">
         <v>780</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="25">
         <v>325</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="23" t="s">
         <v>167</v>
       </c>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="25">
         <v>5705</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="25">
         <v>2306.9166666666665</v>
       </c>
     </row>
